--- a/data/NewlyCreatedData/Checks/sex_checkV3.xlsx
+++ b/data/NewlyCreatedData/Checks/sex_checkV3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="218">
   <si>
     <t>rowid</t>
   </si>
@@ -53,52 +53,52 @@
     <t>obs917</t>
   </si>
   <si>
-    <t>obs1494</t>
-  </si>
-  <si>
-    <t>obs1939</t>
-  </si>
-  <si>
-    <t>obs2442</t>
-  </si>
-  <si>
-    <t>obs3022</t>
-  </si>
-  <si>
-    <t>obs3589</t>
-  </si>
-  <si>
-    <t>obs4215</t>
-  </si>
-  <si>
-    <t>obs4791</t>
-  </si>
-  <si>
-    <t>obs5377</t>
-  </si>
-  <si>
-    <t>obs6053</t>
-  </si>
-  <si>
-    <t>obs6672</t>
-  </si>
-  <si>
-    <t>obs7365</t>
-  </si>
-  <si>
-    <t>obs8063</t>
-  </si>
-  <si>
-    <t>obs8642</t>
-  </si>
-  <si>
-    <t>obs9347</t>
-  </si>
-  <si>
-    <t>obs10164</t>
-  </si>
-  <si>
-    <t>obs11425</t>
+    <t>obs1495</t>
+  </si>
+  <si>
+    <t>obs1940</t>
+  </si>
+  <si>
+    <t>obs2443</t>
+  </si>
+  <si>
+    <t>obs3023</t>
+  </si>
+  <si>
+    <t>obs3590</t>
+  </si>
+  <si>
+    <t>obs4216</t>
+  </si>
+  <si>
+    <t>obs4792</t>
+  </si>
+  <si>
+    <t>obs5378</t>
+  </si>
+  <si>
+    <t>obs6054</t>
+  </si>
+  <si>
+    <t>obs6673</t>
+  </si>
+  <si>
+    <t>obs7366</t>
+  </si>
+  <si>
+    <t>obs8064</t>
+  </si>
+  <si>
+    <t>obs8643</t>
+  </si>
+  <si>
+    <t>obs9348</t>
+  </si>
+  <si>
+    <t>obs10165</t>
+  </si>
+  <si>
+    <t>obs11426</t>
   </si>
   <si>
     <t>obs335</t>
@@ -110,22 +110,22 @@
     <t>obs949</t>
   </si>
   <si>
-    <t>obs1089</t>
-  </si>
-  <si>
-    <t>obs1654</t>
-  </si>
-  <si>
-    <t>obs2107</t>
-  </si>
-  <si>
-    <t>obs2626</t>
-  </si>
-  <si>
-    <t>obs3216</t>
-  </si>
-  <si>
-    <t>obs3783</t>
+    <t>obs1090</t>
+  </si>
+  <si>
+    <t>obs1655</t>
+  </si>
+  <si>
+    <t>obs2108</t>
+  </si>
+  <si>
+    <t>obs2627</t>
+  </si>
+  <si>
+    <t>obs3217</t>
+  </si>
+  <si>
+    <t>obs3784</t>
   </si>
   <si>
     <t>obs336</t>
@@ -134,220 +134,166 @@
     <t>obs436</t>
   </si>
   <si>
-    <t>obs3236</t>
-  </si>
-  <si>
-    <t>obs3804</t>
-  </si>
-  <si>
-    <t>obs4433</t>
-  </si>
-  <si>
-    <t>obs4990</t>
-  </si>
-  <si>
-    <t>obs5620</t>
-  </si>
-  <si>
-    <t>obs5899</t>
-  </si>
-  <si>
-    <t>obs6296</t>
-  </si>
-  <si>
-    <t>obs6906</t>
-  </si>
-  <si>
-    <t>obs7615</t>
-  </si>
-  <si>
-    <t>obs8289</t>
-  </si>
-  <si>
-    <t>obs8899</t>
-  </si>
-  <si>
-    <t>obs9619</t>
-  </si>
-  <si>
-    <t>obs10452</t>
-  </si>
-  <si>
-    <t>obs11017</t>
-  </si>
-  <si>
-    <t>obs11708</t>
-  </si>
-  <si>
-    <t>obs12372</t>
-  </si>
-  <si>
-    <t>obs13041</t>
-  </si>
-  <si>
-    <t>obs13624</t>
-  </si>
-  <si>
-    <t>obs12131</t>
-  </si>
-  <si>
-    <t>obs12408</t>
-  </si>
-  <si>
-    <t>obs13077</t>
-  </si>
-  <si>
-    <t>obs13660</t>
-  </si>
-  <si>
-    <t>obs4463</t>
-  </si>
-  <si>
-    <t>obs5020</t>
-  </si>
-  <si>
-    <t>obs5651</t>
-  </si>
-  <si>
-    <t>obs5919</t>
-  </si>
-  <si>
-    <t>obs6327</t>
-  </si>
-  <si>
-    <t>obs6937</t>
-  </si>
-  <si>
-    <t>obs7653</t>
-  </si>
-  <si>
-    <t>obs8330</t>
-  </si>
-  <si>
-    <t>obs8942</t>
-  </si>
-  <si>
-    <t>obs9668</t>
-  </si>
-  <si>
-    <t>obs10509</t>
-  </si>
-  <si>
-    <t>obs11062</t>
-  </si>
-  <si>
-    <t>obs11761</t>
-  </si>
-  <si>
-    <t>obs12133</t>
-  </si>
-  <si>
-    <t>obs12412</t>
-  </si>
-  <si>
-    <t>obs13081</t>
-  </si>
-  <si>
-    <t>obs13664</t>
-  </si>
-  <si>
-    <t>obs1400</t>
-  </si>
-  <si>
-    <t>obs1702</t>
-  </si>
-  <si>
-    <t>obs2155</t>
-  </si>
-  <si>
-    <t>obs2680</t>
-  </si>
-  <si>
-    <t>obs3273</t>
-  </si>
-  <si>
-    <t>obs3843</t>
-  </si>
-  <si>
-    <t>obs4483</t>
-  </si>
-  <si>
-    <t>obs5674</t>
-  </si>
-  <si>
-    <t>obs6350</t>
-  </si>
-  <si>
-    <t>obs6960</t>
-  </si>
-  <si>
-    <t>obs7680</t>
-  </si>
-  <si>
-    <t>obs8970</t>
-  </si>
-  <si>
-    <t>obs9697</t>
-  </si>
-  <si>
-    <t>obs10538</t>
-  </si>
-  <si>
-    <t>obs11794</t>
-  </si>
-  <si>
-    <t>obs1173</t>
-  </si>
-  <si>
-    <t>obs1326</t>
-  </si>
-  <si>
-    <t>obs1705</t>
-  </si>
-  <si>
-    <t>obs2158</t>
-  </si>
-  <si>
-    <t>obs2683</t>
-  </si>
-  <si>
-    <t>obs2895</t>
-  </si>
-  <si>
-    <t>obs3277</t>
-  </si>
-  <si>
-    <t>obs3847</t>
-  </si>
-  <si>
-    <t>obs4492</t>
-  </si>
-  <si>
-    <t>obs5047</t>
-  </si>
-  <si>
-    <t>obs5684</t>
-  </si>
-  <si>
-    <t>obs6360</t>
-  </si>
-  <si>
-    <t>obs6970</t>
-  </si>
-  <si>
-    <t>obs7690</t>
-  </si>
-  <si>
-    <t>obs8979</t>
-  </si>
-  <si>
-    <t>obs9705</t>
-  </si>
-  <si>
-    <t>obs10545</t>
-  </si>
-  <si>
-    <t>obs11801</t>
+    <t>obs3237</t>
+  </si>
+  <si>
+    <t>obs3805</t>
+  </si>
+  <si>
+    <t>obs4434</t>
+  </si>
+  <si>
+    <t>obs4991</t>
+  </si>
+  <si>
+    <t>obs5621</t>
+  </si>
+  <si>
+    <t>obs5900</t>
+  </si>
+  <si>
+    <t>obs6297</t>
+  </si>
+  <si>
+    <t>obs6907</t>
+  </si>
+  <si>
+    <t>obs7616</t>
+  </si>
+  <si>
+    <t>obs8290</t>
+  </si>
+  <si>
+    <t>obs8900</t>
+  </si>
+  <si>
+    <t>obs9620</t>
+  </si>
+  <si>
+    <t>obs10453</t>
+  </si>
+  <si>
+    <t>obs11018</t>
+  </si>
+  <si>
+    <t>obs11709</t>
+  </si>
+  <si>
+    <t>obs12373</t>
+  </si>
+  <si>
+    <t>obs13042</t>
+  </si>
+  <si>
+    <t>obs13625</t>
+  </si>
+  <si>
+    <t>obs12132</t>
+  </si>
+  <si>
+    <t>obs12409</t>
+  </si>
+  <si>
+    <t>obs13078</t>
+  </si>
+  <si>
+    <t>obs13661</t>
+  </si>
+  <si>
+    <t>obs4464</t>
+  </si>
+  <si>
+    <t>obs5021</t>
+  </si>
+  <si>
+    <t>obs5652</t>
+  </si>
+  <si>
+    <t>obs5920</t>
+  </si>
+  <si>
+    <t>obs6328</t>
+  </si>
+  <si>
+    <t>obs6938</t>
+  </si>
+  <si>
+    <t>obs7654</t>
+  </si>
+  <si>
+    <t>obs8331</t>
+  </si>
+  <si>
+    <t>obs8943</t>
+  </si>
+  <si>
+    <t>obs9669</t>
+  </si>
+  <si>
+    <t>obs10510</t>
+  </si>
+  <si>
+    <t>obs11063</t>
+  </si>
+  <si>
+    <t>obs11762</t>
+  </si>
+  <si>
+    <t>obs12134</t>
+  </si>
+  <si>
+    <t>obs12413</t>
+  </si>
+  <si>
+    <t>obs13082</t>
+  </si>
+  <si>
+    <t>obs13665</t>
+  </si>
+  <si>
+    <t>obs1401</t>
+  </si>
+  <si>
+    <t>obs1703</t>
+  </si>
+  <si>
+    <t>obs2156</t>
+  </si>
+  <si>
+    <t>obs2681</t>
+  </si>
+  <si>
+    <t>obs3274</t>
+  </si>
+  <si>
+    <t>obs3844</t>
+  </si>
+  <si>
+    <t>obs4484</t>
+  </si>
+  <si>
+    <t>obs5675</t>
+  </si>
+  <si>
+    <t>obs6351</t>
+  </si>
+  <si>
+    <t>obs6961</t>
+  </si>
+  <si>
+    <t>obs7681</t>
+  </si>
+  <si>
+    <t>obs8971</t>
+  </si>
+  <si>
+    <t>obs9698</t>
+  </si>
+  <si>
+    <t>obs10539</t>
+  </si>
+  <si>
+    <t>obs11795</t>
   </si>
   <si>
     <t>obs1174</t>
@@ -365,6 +311,9 @@
     <t>obs2684</t>
   </si>
   <si>
+    <t>obs2896</t>
+  </si>
+  <si>
     <t>obs3278</t>
   </si>
   <si>
@@ -401,64 +350,55 @@
     <t>obs11802</t>
   </si>
   <si>
-    <t>obs38</t>
-  </si>
-  <si>
-    <t>obs59</t>
-  </si>
-  <si>
-    <t>obs231</t>
-  </si>
-  <si>
-    <t>obs371</t>
-  </si>
-  <si>
-    <t>obs427</t>
-  </si>
-  <si>
-    <t>obs1725</t>
-  </si>
-  <si>
-    <t>obs2178</t>
-  </si>
-  <si>
-    <t>obs2707</t>
-  </si>
-  <si>
-    <t>obs3303</t>
-  </si>
-  <si>
-    <t>obs3875</t>
-  </si>
-  <si>
-    <t>obs4512</t>
-  </si>
-  <si>
-    <t>obs5065</t>
-  </si>
-  <si>
-    <t>obs5707</t>
-  </si>
-  <si>
-    <t>obs5874</t>
-  </si>
-  <si>
-    <t>obs6383</t>
-  </si>
-  <si>
-    <t>obs6993</t>
-  </si>
-  <si>
-    <t>obs7713</t>
-  </si>
-  <si>
-    <t>obs8359</t>
-  </si>
-  <si>
-    <t>obs9732</t>
-  </si>
-  <si>
-    <t>obs10576</t>
+    <t>obs1175</t>
+  </si>
+  <si>
+    <t>obs1328</t>
+  </si>
+  <si>
+    <t>obs1707</t>
+  </si>
+  <si>
+    <t>obs2160</t>
+  </si>
+  <si>
+    <t>obs2685</t>
+  </si>
+  <si>
+    <t>obs3279</t>
+  </si>
+  <si>
+    <t>obs3849</t>
+  </si>
+  <si>
+    <t>obs4494</t>
+  </si>
+  <si>
+    <t>obs5049</t>
+  </si>
+  <si>
+    <t>obs5686</t>
+  </si>
+  <si>
+    <t>obs6362</t>
+  </si>
+  <si>
+    <t>obs6972</t>
+  </si>
+  <si>
+    <t>obs7692</t>
+  </si>
+  <si>
+    <t>obs8981</t>
+  </si>
+  <si>
+    <t>obs9707</t>
+  </si>
+  <si>
+    <t>obs10547</t>
+  </si>
+  <si>
+    <t>obs11803</t>
   </si>
   <si>
     <t>obs273</t>
@@ -470,85 +410,52 @@
     <t>obs688</t>
   </si>
   <si>
-    <t>obs1590</t>
-  </si>
-  <si>
-    <t>obs2040</t>
-  </si>
-  <si>
-    <t>obs2554</t>
-  </si>
-  <si>
-    <t>obs3137</t>
-  </si>
-  <si>
-    <t>obs3702</t>
-  </si>
-  <si>
-    <t>obs4331</t>
-  </si>
-  <si>
-    <t>obs4883</t>
-  </si>
-  <si>
-    <t>obs5503</t>
-  </si>
-  <si>
-    <t>obs6178</t>
-  </si>
-  <si>
-    <t>obs6793</t>
-  </si>
-  <si>
-    <t>obs7497</t>
-  </si>
-  <si>
-    <t>obs8166</t>
-  </si>
-  <si>
-    <t>obs8780</t>
-  </si>
-  <si>
-    <t>obs9486</t>
-  </si>
-  <si>
-    <t>obs10303</t>
-  </si>
-  <si>
-    <t>obs11555</t>
-  </si>
-  <si>
-    <t>obs1384</t>
-  </si>
-  <si>
-    <t>obs5742</t>
-  </si>
-  <si>
-    <t>obs6416</t>
-  </si>
-  <si>
-    <t>obs7026</t>
-  </si>
-  <si>
-    <t>obs7749</t>
-  </si>
-  <si>
-    <t>obs8394</t>
-  </si>
-  <si>
-    <t>obs9035</t>
-  </si>
-  <si>
-    <t>obs9770</t>
-  </si>
-  <si>
-    <t>obs10618</t>
-  </si>
-  <si>
-    <t>obs11243</t>
-  </si>
-  <si>
-    <t>obs12035</t>
+    <t>obs1591</t>
+  </si>
+  <si>
+    <t>obs2041</t>
+  </si>
+  <si>
+    <t>obs2555</t>
+  </si>
+  <si>
+    <t>obs3138</t>
+  </si>
+  <si>
+    <t>obs3703</t>
+  </si>
+  <si>
+    <t>obs4332</t>
+  </si>
+  <si>
+    <t>obs4884</t>
+  </si>
+  <si>
+    <t>obs5504</t>
+  </si>
+  <si>
+    <t>obs6179</t>
+  </si>
+  <si>
+    <t>obs6794</t>
+  </si>
+  <si>
+    <t>obs7498</t>
+  </si>
+  <si>
+    <t>obs8167</t>
+  </si>
+  <si>
+    <t>obs8781</t>
+  </si>
+  <si>
+    <t>obs9487</t>
+  </si>
+  <si>
+    <t>obs10304</t>
+  </si>
+  <si>
+    <t>obs11556</t>
   </si>
   <si>
     <t>obs1385</t>
@@ -584,109 +491,82 @@
     <t>obs12036</t>
   </si>
   <si>
-    <t>obs1202</t>
-  </si>
-  <si>
-    <t>obs1382</t>
-  </si>
-  <si>
-    <t>obs1769</t>
-  </si>
-  <si>
-    <t>obs4045</t>
-  </si>
-  <si>
-    <t>obs4561</t>
-  </si>
-  <si>
-    <t>obs5112</t>
-  </si>
-  <si>
-    <t>obs5767</t>
-  </si>
-  <si>
-    <t>obs6441</t>
-  </si>
-  <si>
-    <t>obs7051</t>
-  </si>
-  <si>
-    <t>obs7776</t>
-  </si>
-  <si>
-    <t>obs8426</t>
-  </si>
-  <si>
-    <t>obs9067</t>
-  </si>
-  <si>
-    <t>obs9802</t>
-  </si>
-  <si>
-    <t>obs10649</t>
-  </si>
-  <si>
-    <t>obs11912</t>
-  </si>
-  <si>
-    <t>obs214</t>
-  </si>
-  <si>
-    <t>obs224</t>
-  </si>
-  <si>
-    <t>obs393</t>
-  </si>
-  <si>
-    <t>obs495</t>
-  </si>
-  <si>
-    <t>obs812</t>
-  </si>
-  <si>
-    <t>obs972</t>
-  </si>
-  <si>
-    <t>obs976</t>
-  </si>
-  <si>
-    <t>obs1016</t>
-  </si>
-  <si>
-    <t>obs1123</t>
-  </si>
-  <si>
-    <t>obs1194</t>
-  </si>
-  <si>
-    <t>obs1803</t>
-  </si>
-  <si>
-    <t>obs2253</t>
-  </si>
-  <si>
-    <t>obs2788</t>
-  </si>
-  <si>
-    <t>obs3389</t>
-  </si>
-  <si>
-    <t>obs3457</t>
-  </si>
-  <si>
-    <t>obs3961</t>
-  </si>
-  <si>
-    <t>obs4600</t>
-  </si>
-  <si>
-    <t>obs5152</t>
-  </si>
-  <si>
-    <t>obs5807</t>
-  </si>
-  <si>
-    <t>obs6481</t>
+    <t>obs1386</t>
+  </si>
+  <si>
+    <t>obs5744</t>
+  </si>
+  <si>
+    <t>obs6418</t>
+  </si>
+  <si>
+    <t>obs7028</t>
+  </si>
+  <si>
+    <t>obs7751</t>
+  </si>
+  <si>
+    <t>obs8396</t>
+  </si>
+  <si>
+    <t>obs9037</t>
+  </si>
+  <si>
+    <t>obs9772</t>
+  </si>
+  <si>
+    <t>obs10620</t>
+  </si>
+  <si>
+    <t>obs11245</t>
+  </si>
+  <si>
+    <t>obs12037</t>
+  </si>
+  <si>
+    <t>obs1203</t>
+  </si>
+  <si>
+    <t>obs1383</t>
+  </si>
+  <si>
+    <t>obs1770</t>
+  </si>
+  <si>
+    <t>obs4046</t>
+  </si>
+  <si>
+    <t>obs4562</t>
+  </si>
+  <si>
+    <t>obs5113</t>
+  </si>
+  <si>
+    <t>obs5768</t>
+  </si>
+  <si>
+    <t>obs6442</t>
+  </si>
+  <si>
+    <t>obs7052</t>
+  </si>
+  <si>
+    <t>obs7777</t>
+  </si>
+  <si>
+    <t>obs8427</t>
+  </si>
+  <si>
+    <t>obs9068</t>
+  </si>
+  <si>
+    <t>obs9803</t>
+  </si>
+  <si>
+    <t>obs10650</t>
+  </si>
+  <si>
+    <t>obs11913</t>
   </si>
   <si>
     <t>LC12</t>
@@ -716,9 +596,6 @@
     <t>RL13</t>
   </si>
   <si>
-    <t>RT1</t>
-  </si>
-  <si>
     <t>SE3</t>
   </si>
   <si>
@@ -731,15 +608,9 @@
     <t>SK19</t>
   </si>
   <si>
-    <t>ST3</t>
-  </si>
-  <si>
     <t>PA2</t>
   </si>
   <si>
-    <t>2342</t>
-  </si>
-  <si>
     <t>CLA</t>
   </si>
   <si>
@@ -764,9 +635,6 @@
     <t>RI2</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
@@ -783,15 +651,6 @@
   </si>
   <si>
     <t>JD2</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>TR</t>
   </si>
   <si>
     <t>F</t>
@@ -898,13 +757,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E2" t="n" s="2">
         <v>35233.0</v>
@@ -913,10 +772,10 @@
         <v>1.0</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I2" t="n">
         <v>359.0</v>
@@ -930,13 +789,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E3" t="n" s="2">
         <v>35599.0</v>
@@ -945,10 +804,10 @@
         <v>2.0</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H3" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I3" t="n">
         <v>533.0</v>
@@ -962,13 +821,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E4" t="n" s="2">
         <v>35977.0</v>
@@ -977,10 +836,10 @@
         <v>3.0</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H4" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I4" t="n">
         <v>547.0</v>
@@ -994,13 +853,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E5" t="n" s="2">
         <v>37135.0</v>
@@ -1009,10 +868,10 @@
         <v>4.0</v>
       </c>
       <c r="G5" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H5" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I5" t="e">
         <v>#N/A</v>
@@ -1026,13 +885,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E6" t="n" s="2">
         <v>37165.0</v>
@@ -1041,10 +900,10 @@
         <v>5.0</v>
       </c>
       <c r="G6" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I6" t="e">
         <v>#N/A</v>
@@ -1058,13 +917,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E7" t="n" s="2">
         <v>37377.0</v>
@@ -1073,10 +932,10 @@
         <v>6.0</v>
       </c>
       <c r="G7" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H7" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I7" t="e">
         <v>#N/A</v>
@@ -1090,13 +949,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E8" t="n" s="2">
         <v>37653.0</v>
@@ -1105,10 +964,10 @@
         <v>7.0</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I8" t="e">
         <v>#N/A</v>
@@ -1122,13 +981,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E9" t="n" s="2">
         <v>37712.0</v>
@@ -1137,10 +996,10 @@
         <v>8.0</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I9" t="e">
         <v>#N/A</v>
@@ -1154,13 +1013,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E10" t="n" s="2">
         <v>37895.0</v>
@@ -1169,10 +1028,10 @@
         <v>9.0</v>
       </c>
       <c r="G10" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H10" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I10" t="e">
         <v>#N/A</v>
@@ -1186,13 +1045,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E11" t="n" s="2">
         <v>37956.0</v>
@@ -1201,10 +1060,10 @@
         <v>10.0</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H11" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I11" t="e">
         <v>#N/A</v>
@@ -1218,13 +1077,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E12" t="n" s="2">
         <v>38078.0</v>
@@ -1233,10 +1092,10 @@
         <v>11.0</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H12" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I12" t="e">
         <v>#N/A</v>
@@ -1250,13 +1109,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E13" t="n" s="2">
         <v>38139.0</v>
@@ -1265,10 +1124,10 @@
         <v>12.0</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H13" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I13" t="e">
         <v>#N/A</v>
@@ -1282,13 +1141,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E14" t="n" s="2">
         <v>38169.0</v>
@@ -1297,10 +1156,10 @@
         <v>13.0</v>
       </c>
       <c r="G14" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H14" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I14" t="e">
         <v>#N/A</v>
@@ -1314,13 +1173,13 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E15" t="n" s="2">
         <v>38292.0</v>
@@ -1329,10 +1188,10 @@
         <v>14.0</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H15" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I15" t="e">
         <v>#N/A</v>
@@ -1346,13 +1205,13 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E16" t="n" s="2">
         <v>38353.0</v>
@@ -1361,10 +1220,10 @@
         <v>15.0</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H16" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I16" t="e">
         <v>#N/A</v>
@@ -1378,13 +1237,13 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="E17" t="n" s="2">
         <v>38504.0</v>
@@ -1393,10 +1252,10 @@
         <v>16.0</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H17" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I17" t="e">
         <v>#N/A</v>
@@ -1410,13 +1269,13 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="E18" t="n" s="2">
         <v>38687.0</v>
@@ -1425,10 +1284,10 @@
         <v>17.0</v>
       </c>
       <c r="G18" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H18" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I18" t="e">
         <v>#N/A</v>
@@ -1442,13 +1301,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="E19" t="n" s="2">
         <v>39052.0</v>
@@ -1457,10 +1316,10 @@
         <v>18.0</v>
       </c>
       <c r="G19" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H19" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I19" t="e">
         <v>#N/A</v>
@@ -1474,13 +1333,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="E20" t="n" s="2">
         <v>39203.0</v>
@@ -1489,10 +1348,10 @@
         <v>19.0</v>
       </c>
       <c r="G20" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H20" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I20" t="e">
         <v>#N/A</v>
@@ -1506,13 +1365,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E21" t="n" s="2">
         <v>34472.0</v>
@@ -1521,10 +1380,10 @@
         <v>1.0</v>
       </c>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I21" t="n">
         <v>399.0</v>
@@ -1538,13 +1397,13 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E22" t="n" s="2">
         <v>34859.0</v>
@@ -1553,10 +1412,10 @@
         <v>2.0</v>
       </c>
       <c r="G22" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H22" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I22" t="n">
         <v>343.0</v>
@@ -1570,13 +1429,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E23" t="n" s="2">
         <v>35992.0</v>
@@ -1585,10 +1444,10 @@
         <v>3.0</v>
       </c>
       <c r="G23" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H23" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I23" t="n">
         <v>649.0</v>
@@ -1602,13 +1461,13 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E24" t="n" s="2">
         <v>36312.0</v>
@@ -1617,10 +1476,10 @@
         <v>4.0</v>
       </c>
       <c r="G24" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H24" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I24" t="n">
         <v>674.0</v>
@@ -1634,13 +1493,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E25" t="n" s="2">
         <v>37135.0</v>
@@ -1649,10 +1508,10 @@
         <v>5.0</v>
       </c>
       <c r="G25" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H25" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I25" t="e">
         <v>#N/A</v>
@@ -1666,13 +1525,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E26" t="n" s="2">
         <v>37165.0</v>
@@ -1681,10 +1540,10 @@
         <v>6.0</v>
       </c>
       <c r="G26" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H26" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I26" t="e">
         <v>#N/A</v>
@@ -1698,13 +1557,13 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E27" t="n" s="2">
         <v>37377.0</v>
@@ -1713,10 +1572,10 @@
         <v>7.0</v>
       </c>
       <c r="G27" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H27" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I27" t="e">
         <v>#N/A</v>
@@ -1730,13 +1589,13 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E28" t="n" s="2">
         <v>37653.0</v>
@@ -1745,10 +1604,10 @@
         <v>8.0</v>
       </c>
       <c r="G28" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H28" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I28" t="e">
         <v>#N/A</v>
@@ -1762,13 +1621,13 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E29" t="n" s="2">
         <v>37712.0</v>
@@ -1777,10 +1636,10 @@
         <v>9.0</v>
       </c>
       <c r="G29" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H29" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I29" t="e">
         <v>#N/A</v>
@@ -1794,13 +1653,13 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E30" t="n" s="2">
         <v>34472.0</v>
@@ -1809,10 +1668,10 @@
         <v>1.0</v>
       </c>
       <c r="G30" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H30" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I30" t="n">
         <v>359.0</v>
@@ -1826,13 +1685,13 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E31" t="n" s="2">
         <v>34859.0</v>
@@ -1841,10 +1700,10 @@
         <v>2.0</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H31" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I31" t="n">
         <v>348.0</v>
@@ -1858,13 +1717,13 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E32" t="n" s="2">
         <v>37653.0</v>
@@ -1873,10 +1732,10 @@
         <v>1.0</v>
       </c>
       <c r="G32" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H32" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I32" t="e">
         <v>#N/A</v>
@@ -1890,13 +1749,13 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E33" t="n" s="2">
         <v>37712.0</v>
@@ -1905,10 +1764,10 @@
         <v>2.0</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H33" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I33" t="n">
         <v>452.0</v>
@@ -1922,13 +1781,13 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="D34" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E34" t="n" s="2">
         <v>37895.0</v>
@@ -1937,10 +1796,10 @@
         <v>3.0</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H34" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I34" t="e">
         <v>#N/A</v>
@@ -1954,13 +1813,13 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E35" t="n" s="2">
         <v>37956.0</v>
@@ -1969,10 +1828,10 @@
         <v>4.0</v>
       </c>
       <c r="G35" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H35" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I35" t="e">
         <v>#N/A</v>
@@ -1986,13 +1845,13 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E36" t="n" s="2">
         <v>38078.0</v>
@@ -2001,10 +1860,10 @@
         <v>5.0</v>
       </c>
       <c r="G36" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H36" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I36" t="e">
         <v>#N/A</v>
@@ -2018,13 +1877,13 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E37" t="n" s="2">
         <v>38110.0</v>
@@ -2033,10 +1892,10 @@
         <v>6.0</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H37" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I37" t="n">
         <v>520.0</v>
@@ -2050,13 +1909,13 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E38" t="n" s="2">
         <v>38139.0</v>
@@ -2065,10 +1924,10 @@
         <v>7.0</v>
       </c>
       <c r="G38" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H38" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I38" t="e">
         <v>#N/A</v>
@@ -2082,13 +1941,13 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D39" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E39" t="n" s="2">
         <v>38169.0</v>
@@ -2097,10 +1956,10 @@
         <v>8.0</v>
       </c>
       <c r="G39" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H39" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I39" t="e">
         <v>#N/A</v>
@@ -2114,13 +1973,13 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E40" t="n" s="2">
         <v>38292.0</v>
@@ -2129,10 +1988,10 @@
         <v>9.0</v>
       </c>
       <c r="G40" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H40" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I40" t="e">
         <v>#N/A</v>
@@ -2146,13 +2005,13 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E41" t="n" s="2">
         <v>38353.0</v>
@@ -2161,10 +2020,10 @@
         <v>10.0</v>
       </c>
       <c r="G41" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H41" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I41" t="e">
         <v>#N/A</v>
@@ -2178,13 +2037,13 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E42" t="n" s="2">
         <v>38504.0</v>
@@ -2193,10 +2052,10 @@
         <v>11.0</v>
       </c>
       <c r="G42" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H42" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I42" t="e">
         <v>#N/A</v>
@@ -2210,13 +2069,13 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E43" t="n" s="2">
         <v>38687.0</v>
@@ -2225,10 +2084,10 @@
         <v>12.0</v>
       </c>
       <c r="G43" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H43" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I43" t="e">
         <v>#N/A</v>
@@ -2242,13 +2101,13 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E44" t="n" s="2">
         <v>39052.0</v>
@@ -2257,10 +2116,10 @@
         <v>13.0</v>
       </c>
       <c r="G44" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H44" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I44" t="e">
         <v>#N/A</v>
@@ -2274,13 +2133,13 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E45" t="n" s="2">
         <v>39142.0</v>
@@ -2289,10 +2148,10 @@
         <v>14.0</v>
       </c>
       <c r="G45" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H45" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I45" t="e">
         <v>#N/A</v>
@@ -2306,13 +2165,13 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E46" t="n" s="2">
         <v>39203.0</v>
@@ -2321,10 +2180,10 @@
         <v>15.0</v>
       </c>
       <c r="G46" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H46" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I46" t="e">
         <v>#N/A</v>
@@ -2338,13 +2197,13 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D47" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E47" t="n" s="2">
         <v>39387.0</v>
@@ -2353,10 +2212,10 @@
         <v>16.0</v>
       </c>
       <c r="G47" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H47" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I47" t="e">
         <v>#N/A</v>
@@ -2370,13 +2229,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E48" t="n" s="2">
         <v>39995.0</v>
@@ -2385,10 +2244,10 @@
         <v>17.0</v>
       </c>
       <c r="G48" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H48" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I48" t="e">
         <v>#N/A</v>
@@ -2402,13 +2261,13 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D49" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E49" t="n" s="2">
         <v>40058.0</v>
@@ -2417,10 +2276,10 @@
         <v>18.0</v>
       </c>
       <c r="G49" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I49" t="e">
         <v>#N/A</v>
@@ -2434,13 +2293,13 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E50" t="n" s="2">
         <v>39364.0</v>
@@ -2449,10 +2308,10 @@
         <v>1.0</v>
       </c>
       <c r="G50" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H50" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I50" t="n">
         <v>471.0</v>
@@ -2466,13 +2325,13 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C51" t="e">
         <v>#N/A</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E51" t="n" s="2">
         <v>39387.0</v>
@@ -2481,10 +2340,10 @@
         <v>2.0</v>
       </c>
       <c r="G51" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H51" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I51" t="e">
         <v>#N/A</v>
@@ -2498,13 +2357,13 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C52" t="e">
         <v>#N/A</v>
       </c>
       <c r="D52" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E52" t="n" s="2">
         <v>39995.0</v>
@@ -2513,10 +2372,10 @@
         <v>3.0</v>
       </c>
       <c r="G52" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H52" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I52" t="e">
         <v>#N/A</v>
@@ -2530,13 +2389,13 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C53" t="e">
         <v>#N/A</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E53" t="n" s="2">
         <v>40058.0</v>
@@ -2545,10 +2404,10 @@
         <v>4.0</v>
       </c>
       <c r="G53" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H53" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I53" t="e">
         <v>#N/A</v>
@@ -2562,13 +2421,13 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C54" t="e">
         <v>#N/A</v>
       </c>
       <c r="D54" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E54" t="n" s="2">
         <v>37895.0</v>
@@ -2577,10 +2436,10 @@
         <v>1.0</v>
       </c>
       <c r="G54" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H54" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I54" t="e">
         <v>#N/A</v>
@@ -2594,13 +2453,13 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C55" t="e">
         <v>#N/A</v>
       </c>
       <c r="D55" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E55" t="n" s="2">
         <v>37956.0</v>
@@ -2609,10 +2468,10 @@
         <v>2.0</v>
       </c>
       <c r="G55" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H55" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I55" t="e">
         <v>#N/A</v>
@@ -2626,13 +2485,13 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D56" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E56" t="n" s="2">
         <v>38078.0</v>
@@ -2641,10 +2500,10 @@
         <v>3.0</v>
       </c>
       <c r="G56" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H56" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I56" t="e">
         <v>#N/A</v>
@@ -2658,13 +2517,13 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E57" t="n" s="2">
         <v>38135.0</v>
@@ -2673,10 +2532,10 @@
         <v>4.0</v>
       </c>
       <c r="G57" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H57" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I57" t="n">
         <v>405.0</v>
@@ -2690,13 +2549,13 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E58" t="n" s="2">
         <v>38139.0</v>
@@ -2705,10 +2564,10 @@
         <v>5.0</v>
       </c>
       <c r="G58" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H58" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I58" t="e">
         <v>#N/A</v>
@@ -2722,13 +2581,13 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E59" t="n" s="2">
         <v>38169.0</v>
@@ -2737,10 +2596,10 @@
         <v>6.0</v>
       </c>
       <c r="G59" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H59" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I59" t="e">
         <v>#N/A</v>
@@ -2754,13 +2613,13 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D60" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E60" t="n" s="2">
         <v>38292.0</v>
@@ -2769,10 +2628,10 @@
         <v>7.0</v>
       </c>
       <c r="G60" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H60" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I60" t="e">
         <v>#N/A</v>
@@ -2786,13 +2645,13 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E61" t="n" s="2">
         <v>38353.0</v>
@@ -2801,10 +2660,10 @@
         <v>8.0</v>
       </c>
       <c r="G61" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H61" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I61" t="e">
         <v>#N/A</v>
@@ -2818,13 +2677,13 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E62" t="n" s="2">
         <v>38504.0</v>
@@ -2833,10 +2692,10 @@
         <v>9.0</v>
       </c>
       <c r="G62" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H62" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I62" t="e">
         <v>#N/A</v>
@@ -2850,13 +2709,13 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D63" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E63" t="n" s="2">
         <v>38687.0</v>
@@ -2865,10 +2724,10 @@
         <v>10.0</v>
       </c>
       <c r="G63" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H63" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I63" t="e">
         <v>#N/A</v>
@@ -2882,13 +2741,13 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E64" t="n" s="2">
         <v>39052.0</v>
@@ -2897,10 +2756,10 @@
         <v>11.0</v>
       </c>
       <c r="G64" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H64" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I64" t="e">
         <v>#N/A</v>
@@ -2914,13 +2773,13 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D65" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E65" t="n" s="2">
         <v>39142.0</v>
@@ -2929,10 +2788,10 @@
         <v>12.0</v>
       </c>
       <c r="G65" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H65" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I65" t="e">
         <v>#N/A</v>
@@ -2946,13 +2805,13 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E66" t="n" s="2">
         <v>39203.0</v>
@@ -2961,10 +2820,10 @@
         <v>13.0</v>
       </c>
       <c r="G66" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H66" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I66" t="e">
         <v>#N/A</v>
@@ -2978,13 +2837,13 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D67" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E67" t="n" s="2">
         <v>39364.0</v>
@@ -2993,10 +2852,10 @@
         <v>14.0</v>
       </c>
       <c r="G67" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H67" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I67" t="n">
         <v>626.0</v>
@@ -3010,13 +2869,13 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D68" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E68" t="n" s="2">
         <v>39387.0</v>
@@ -3025,10 +2884,10 @@
         <v>15.0</v>
       </c>
       <c r="G68" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H68" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I68" t="e">
         <v>#N/A</v>
@@ -3042,13 +2901,13 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E69" t="n" s="2">
         <v>39995.0</v>
@@ -3057,10 +2916,10 @@
         <v>16.0</v>
       </c>
       <c r="G69" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H69" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I69" t="e">
         <v>#N/A</v>
@@ -3074,13 +2933,13 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E70" t="n" s="2">
         <v>40058.0</v>
@@ -3089,10 +2948,10 @@
         <v>17.0</v>
       </c>
       <c r="G70" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H70" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I70" t="e">
         <v>#N/A</v>
@@ -3106,13 +2965,13 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D71" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E71" t="n" s="2">
         <v>37124.0</v>
@@ -3121,10 +2980,10 @@
         <v>1.0</v>
       </c>
       <c r="G71" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H71" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I71" t="n">
         <v>343.0</v>
@@ -3138,13 +2997,13 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D72" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E72" t="n" s="2">
         <v>37135.0</v>
@@ -3153,10 +3012,10 @@
         <v>2.0</v>
       </c>
       <c r="G72" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H72" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I72" t="e">
         <v>#N/A</v>
@@ -3170,13 +3029,13 @@
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E73" t="n" s="2">
         <v>37165.0</v>
@@ -3185,10 +3044,10 @@
         <v>3.0</v>
       </c>
       <c r="G73" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H73" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I73" t="e">
         <v>#N/A</v>
@@ -3202,13 +3061,13 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C74" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D74" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E74" t="n" s="2">
         <v>37377.0</v>
@@ -3217,10 +3076,10 @@
         <v>4.0</v>
       </c>
       <c r="G74" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H74" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I74" t="e">
         <v>#N/A</v>
@@ -3234,13 +3093,13 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E75" t="n" s="2">
         <v>37653.0</v>
@@ -3249,10 +3108,10 @@
         <v>5.0</v>
       </c>
       <c r="G75" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H75" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I75" t="e">
         <v>#N/A</v>
@@ -3266,13 +3125,13 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D76" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E76" t="n" s="2">
         <v>37712.0</v>
@@ -3281,10 +3140,10 @@
         <v>6.0</v>
       </c>
       <c r="G76" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H76" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I76" t="e">
         <v>#N/A</v>
@@ -3298,13 +3157,13 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E77" t="n" s="2">
         <v>37895.0</v>
@@ -3313,10 +3172,10 @@
         <v>7.0</v>
       </c>
       <c r="G77" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H77" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I77" t="e">
         <v>#N/A</v>
@@ -3330,13 +3189,13 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E78" t="n" s="2">
         <v>38078.0</v>
@@ -3345,10 +3204,10 @@
         <v>8.0</v>
       </c>
       <c r="G78" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H78" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I78" t="e">
         <v>#N/A</v>
@@ -3362,13 +3221,13 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C79" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D79" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E79" t="n" s="2">
         <v>38139.0</v>
@@ -3377,10 +3236,10 @@
         <v>9.0</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H79" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I79" t="e">
         <v>#N/A</v>
@@ -3394,13 +3253,13 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C80" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D80" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E80" t="n" s="2">
         <v>38169.0</v>
@@ -3409,10 +3268,10 @@
         <v>10.0</v>
       </c>
       <c r="G80" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H80" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I80" t="e">
         <v>#N/A</v>
@@ -3426,13 +3285,13 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E81" t="n" s="2">
         <v>38292.0</v>
@@ -3441,10 +3300,10 @@
         <v>11.0</v>
       </c>
       <c r="G81" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H81" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I81" t="e">
         <v>#N/A</v>
@@ -3458,13 +3317,13 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D82" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E82" t="n" s="2">
         <v>38504.0</v>
@@ -3473,10 +3332,10 @@
         <v>12.0</v>
       </c>
       <c r="G82" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H82" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I82" t="e">
         <v>#N/A</v>
@@ -3490,13 +3349,13 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E83" t="n" s="2">
         <v>38687.0</v>
@@ -3505,10 +3364,10 @@
         <v>13.0</v>
       </c>
       <c r="G83" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H83" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I83" t="e">
         <v>#N/A</v>
@@ -3522,13 +3381,13 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C84" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D84" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E84" t="n" s="2">
         <v>39052.0</v>
@@ -3537,10 +3396,10 @@
         <v>14.0</v>
       </c>
       <c r="G84" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H84" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I84" t="e">
         <v>#N/A</v>
@@ -3554,13 +3413,13 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D85" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E85" t="n" s="2">
         <v>39203.0</v>
@@ -3569,10 +3428,10 @@
         <v>15.0</v>
       </c>
       <c r="G85" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H85" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I85" t="e">
         <v>#N/A</v>
@@ -3586,13 +3445,13 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D86" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E86" t="n" s="2">
         <v>36703.0</v>
@@ -3601,10 +3460,10 @@
         <v>1.0</v>
       </c>
       <c r="G86" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H86" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I86" t="n">
         <v>555.0</v>
@@ -3618,13 +3477,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C87" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D87" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E87" t="n" s="2">
         <v>37081.0</v>
@@ -3633,10 +3492,10 @@
         <v>2.0</v>
       </c>
       <c r="G87" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H87" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I87" t="e">
         <v>#N/A</v>
@@ -3650,13 +3509,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C88" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D88" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E88" t="n" s="2">
         <v>37135.0</v>
@@ -3665,10 +3524,10 @@
         <v>3.0</v>
       </c>
       <c r="G88" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H88" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I88" t="e">
         <v>#N/A</v>
@@ -3682,13 +3541,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D89" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E89" t="n" s="2">
         <v>37165.0</v>
@@ -3697,10 +3556,10 @@
         <v>4.0</v>
       </c>
       <c r="G89" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H89" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I89" t="e">
         <v>#N/A</v>
@@ -3714,13 +3573,13 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C90" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D90" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E90" t="n" s="2">
         <v>37377.0</v>
@@ -3729,10 +3588,10 @@
         <v>5.0</v>
       </c>
       <c r="G90" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H90" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I90" t="e">
         <v>#N/A</v>
@@ -3746,13 +3605,13 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C91" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D91" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E91" t="n" s="2">
         <v>37642.0</v>
@@ -3761,10 +3620,10 @@
         <v>6.0</v>
       </c>
       <c r="G91" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H91" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I91" t="e">
         <v>#N/A</v>
@@ -3778,13 +3637,13 @@
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D92" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E92" t="n" s="2">
         <v>37653.0</v>
@@ -3793,10 +3652,10 @@
         <v>7.0</v>
       </c>
       <c r="G92" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H92" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I92" t="e">
         <v>#N/A</v>
@@ -3810,13 +3669,13 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C93" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E93" t="n" s="2">
         <v>37712.0</v>
@@ -3825,10 +3684,10 @@
         <v>8.0</v>
       </c>
       <c r="G93" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H93" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I93" t="e">
         <v>#N/A</v>
@@ -3842,13 +3701,13 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D94" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E94" t="n" s="2">
         <v>37895.0</v>
@@ -3857,10 +3716,10 @@
         <v>9.0</v>
       </c>
       <c r="G94" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H94" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I94" t="e">
         <v>#N/A</v>
@@ -3874,13 +3733,13 @@
         <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D95" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E95" t="n" s="2">
         <v>37956.0</v>
@@ -3889,10 +3748,10 @@
         <v>10.0</v>
       </c>
       <c r="G95" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H95" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I95" t="e">
         <v>#N/A</v>
@@ -3906,13 +3765,13 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D96" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E96" t="n" s="2">
         <v>38078.0</v>
@@ -3921,10 +3780,10 @@
         <v>11.0</v>
       </c>
       <c r="G96" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H96" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I96" t="e">
         <v>#N/A</v>
@@ -3938,13 +3797,13 @@
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D97" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E97" t="n" s="2">
         <v>38139.0</v>
@@ -3953,10 +3812,10 @@
         <v>12.0</v>
       </c>
       <c r="G97" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H97" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I97" t="e">
         <v>#N/A</v>
@@ -3970,13 +3829,13 @@
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D98" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E98" t="n" s="2">
         <v>38169.0</v>
@@ -3985,10 +3844,10 @@
         <v>13.0</v>
       </c>
       <c r="G98" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H98" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I98" t="e">
         <v>#N/A</v>
@@ -4002,13 +3861,13 @@
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D99" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E99" t="n" s="2">
         <v>38292.0</v>
@@ -4017,10 +3876,10 @@
         <v>14.0</v>
       </c>
       <c r="G99" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H99" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I99" t="e">
         <v>#N/A</v>
@@ -4034,13 +3893,13 @@
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C100" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D100" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E100" t="n" s="2">
         <v>38504.0</v>
@@ -4049,10 +3908,10 @@
         <v>15.0</v>
       </c>
       <c r="G100" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H100" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I100" t="e">
         <v>#N/A</v>
@@ -4066,13 +3925,13 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D101" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E101" t="n" s="2">
         <v>38687.0</v>
@@ -4081,10 +3940,10 @@
         <v>16.0</v>
       </c>
       <c r="G101" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H101" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I101" t="e">
         <v>#N/A</v>
@@ -4098,13 +3957,13 @@
         <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C102" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D102" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E102" t="n" s="2">
         <v>39052.0</v>
@@ -4113,10 +3972,10 @@
         <v>17.0</v>
       </c>
       <c r="G102" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H102" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I102" t="e">
         <v>#N/A</v>
@@ -4130,13 +3989,13 @@
         <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D103" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E103" t="n" s="2">
         <v>39203.0</v>
@@ -4145,10 +4004,10 @@
         <v>18.0</v>
       </c>
       <c r="G103" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H103" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I103" t="e">
         <v>#N/A</v>
@@ -4162,13 +4021,13 @@
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C104" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D104" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E104" t="n" s="2">
         <v>36703.0</v>
@@ -4177,10 +4036,10 @@
         <v>1.0</v>
       </c>
       <c r="G104" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H104" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I104" t="n">
         <v>363.0</v>
@@ -4194,13 +4053,13 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C105" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D105" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E105" t="n" s="2">
         <v>37081.0</v>
@@ -4209,10 +4068,10 @@
         <v>2.0</v>
       </c>
       <c r="G105" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H105" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I105" t="e">
         <v>#N/A</v>
@@ -4226,13 +4085,13 @@
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C106" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D106" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E106" t="n" s="2">
         <v>37135.0</v>
@@ -4241,10 +4100,10 @@
         <v>3.0</v>
       </c>
       <c r="G106" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H106" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I106" t="e">
         <v>#N/A</v>
@@ -4258,13 +4117,13 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D107" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E107" t="n" s="2">
         <v>37165.0</v>
@@ -4273,10 +4132,10 @@
         <v>4.0</v>
       </c>
       <c r="G107" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H107" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I107" t="e">
         <v>#N/A</v>
@@ -4290,13 +4149,13 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C108" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D108" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E108" t="n" s="2">
         <v>37377.0</v>
@@ -4305,10 +4164,10 @@
         <v>5.0</v>
       </c>
       <c r="G108" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H108" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I108" t="e">
         <v>#N/A</v>
@@ -4322,13 +4181,13 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C109" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D109" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E109" t="n" s="2">
         <v>37653.0</v>
@@ -4337,10 +4196,10 @@
         <v>6.0</v>
       </c>
       <c r="G109" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H109" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I109" t="e">
         <v>#N/A</v>
@@ -4354,13 +4213,13 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C110" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D110" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E110" t="n" s="2">
         <v>37712.0</v>
@@ -4369,10 +4228,10 @@
         <v>7.0</v>
       </c>
       <c r="G110" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H110" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I110" t="e">
         <v>#N/A</v>
@@ -4386,13 +4245,13 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C111" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D111" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E111" t="n" s="2">
         <v>37895.0</v>
@@ -4401,10 +4260,10 @@
         <v>8.0</v>
       </c>
       <c r="G111" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H111" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I111" t="e">
         <v>#N/A</v>
@@ -4418,13 +4277,13 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D112" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E112" t="n" s="2">
         <v>37956.0</v>
@@ -4433,10 +4292,10 @@
         <v>9.0</v>
       </c>
       <c r="G112" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H112" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I112" t="e">
         <v>#N/A</v>
@@ -4450,13 +4309,13 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C113" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D113" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E113" t="n" s="2">
         <v>38078.0</v>
@@ -4465,10 +4324,10 @@
         <v>10.0</v>
       </c>
       <c r="G113" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H113" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I113" t="e">
         <v>#N/A</v>
@@ -4482,13 +4341,13 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C114" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D114" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E114" t="n" s="2">
         <v>38139.0</v>
@@ -4497,10 +4356,10 @@
         <v>11.0</v>
       </c>
       <c r="G114" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H114" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I114" t="e">
         <v>#N/A</v>
@@ -4514,13 +4373,13 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D115" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E115" t="n" s="2">
         <v>38169.0</v>
@@ -4529,10 +4388,10 @@
         <v>12.0</v>
       </c>
       <c r="G115" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H115" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I115" t="e">
         <v>#N/A</v>
@@ -4546,13 +4405,13 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C116" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D116" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E116" t="n" s="2">
         <v>38292.0</v>
@@ -4561,10 +4420,10 @@
         <v>13.0</v>
       </c>
       <c r="G116" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H116" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I116" t="e">
         <v>#N/A</v>
@@ -4578,13 +4437,13 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C117" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D117" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E117" t="n" s="2">
         <v>38504.0</v>
@@ -4593,10 +4452,10 @@
         <v>14.0</v>
       </c>
       <c r="G117" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H117" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I117" t="e">
         <v>#N/A</v>
@@ -4610,13 +4469,13 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C118" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D118" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E118" t="n" s="2">
         <v>38687.0</v>
@@ -4625,10 +4484,10 @@
         <v>15.0</v>
       </c>
       <c r="G118" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H118" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I118" t="e">
         <v>#N/A</v>
@@ -4642,13 +4501,13 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C119" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D119" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E119" t="n" s="2">
         <v>39052.0</v>
@@ -4657,10 +4516,10 @@
         <v>16.0</v>
       </c>
       <c r="G119" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H119" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I119" t="e">
         <v>#N/A</v>
@@ -4674,13 +4533,13 @@
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C120" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D120" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E120" t="n" s="2">
         <v>39203.0</v>
@@ -4689,10 +4548,10 @@
         <v>17.0</v>
       </c>
       <c r="G120" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H120" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I120" t="e">
         <v>#N/A</v>
@@ -4706,28 +4565,28 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C121" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D121" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E121" t="n" s="2">
-        <v>33147.0</v>
+        <v>34082.0</v>
       </c>
       <c r="F121" t="n">
         <v>1.0</v>
       </c>
       <c r="G121" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H121" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I121" t="n">
-        <v>513.0</v>
+        <v>373.0</v>
       </c>
       <c r="J121" t="e">
         <v>#N/A</v>
@@ -4738,28 +4597,28 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C122" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D122" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E122" t="n" s="2">
-        <v>33181.0</v>
+        <v>35435.0</v>
       </c>
       <c r="F122" t="n">
         <v>2.0</v>
       </c>
       <c r="G122" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H122" t="s">
-        <v>262</v>
-      </c>
-      <c r="I122" t="n">
-        <v>579.0</v>
+        <v>217</v>
+      </c>
+      <c r="I122" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J122" t="e">
         <v>#N/A</v>
@@ -4770,28 +4629,28 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C123" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D123" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="E123" t="n" s="2">
-        <v>33977.0</v>
+        <v>35525.0</v>
       </c>
       <c r="F123" t="n">
         <v>3.0</v>
       </c>
       <c r="G123" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H123" t="s">
-        <v>262</v>
-      </c>
-      <c r="I123" t="n">
-        <v>613.0</v>
+        <v>217</v>
+      </c>
+      <c r="I123" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J123" t="e">
         <v>#N/A</v>
@@ -4802,28 +4661,28 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C124" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D124" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E124" t="n" s="2">
-        <v>34570.0</v>
+        <v>37135.0</v>
       </c>
       <c r="F124" t="n">
         <v>4.0</v>
       </c>
       <c r="G124" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H124" t="s">
-        <v>262</v>
-      </c>
-      <c r="I124" t="n">
-        <v>552.0</v>
+        <v>216</v>
+      </c>
+      <c r="I124" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J124" t="e">
         <v>#N/A</v>
@@ -4834,28 +4693,28 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C125" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D125" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E125" t="n" s="2">
-        <v>34829.0</v>
+        <v>37165.0</v>
       </c>
       <c r="F125" t="n">
         <v>5.0</v>
       </c>
       <c r="G125" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H125" t="s">
-        <v>262</v>
-      </c>
-      <c r="I125" t="n">
-        <v>583.0</v>
+        <v>216</v>
+      </c>
+      <c r="I125" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J125" t="e">
         <v>#N/A</v>
@@ -4866,25 +4725,25 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C126" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D126" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E126" t="n" s="2">
-        <v>37135.0</v>
+        <v>37377.0</v>
       </c>
       <c r="F126" t="n">
         <v>6.0</v>
       </c>
       <c r="G126" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H126" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I126" t="e">
         <v>#N/A</v>
@@ -4898,25 +4757,25 @@
         <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C127" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D127" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E127" t="n" s="2">
-        <v>37165.0</v>
+        <v>37653.0</v>
       </c>
       <c r="F127" t="n">
         <v>7.0</v>
       </c>
       <c r="G127" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H127" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I127" t="e">
         <v>#N/A</v>
@@ -4930,25 +4789,25 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C128" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D128" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E128" t="n" s="2">
-        <v>37377.0</v>
+        <v>37712.0</v>
       </c>
       <c r="F128" t="n">
         <v>8.0</v>
       </c>
       <c r="G128" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H128" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I128" t="e">
         <v>#N/A</v>
@@ -4962,25 +4821,25 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C129" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D129" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E129" t="n" s="2">
-        <v>37653.0</v>
+        <v>37895.0</v>
       </c>
       <c r="F129" t="n">
         <v>9.0</v>
       </c>
       <c r="G129" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H129" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I129" t="e">
         <v>#N/A</v>
@@ -4994,25 +4853,25 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D130" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E130" t="n" s="2">
-        <v>37712.0</v>
+        <v>37956.0</v>
       </c>
       <c r="F130" t="n">
         <v>10.0</v>
       </c>
       <c r="G130" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H130" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I130" t="e">
         <v>#N/A</v>
@@ -5026,25 +4885,25 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C131" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D131" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E131" t="n" s="2">
-        <v>37895.0</v>
+        <v>38078.0</v>
       </c>
       <c r="F131" t="n">
         <v>11.0</v>
       </c>
       <c r="G131" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H131" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I131" t="e">
         <v>#N/A</v>
@@ -5058,25 +4917,25 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C132" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D132" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E132" t="n" s="2">
-        <v>37956.0</v>
+        <v>38139.0</v>
       </c>
       <c r="F132" t="n">
         <v>12.0</v>
       </c>
       <c r="G132" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H132" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I132" t="e">
         <v>#N/A</v>
@@ -5090,25 +4949,25 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C133" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D133" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E133" t="n" s="2">
-        <v>38078.0</v>
+        <v>38169.0</v>
       </c>
       <c r="F133" t="n">
         <v>13.0</v>
       </c>
       <c r="G133" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H133" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I133" t="e">
         <v>#N/A</v>
@@ -5122,28 +4981,28 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C134" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D134" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E134" t="n" s="2">
-        <v>38096.0</v>
+        <v>38292.0</v>
       </c>
       <c r="F134" t="n">
         <v>14.0</v>
       </c>
       <c r="G134" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H134" t="s">
-        <v>262</v>
-      </c>
-      <c r="I134" t="n">
-        <v>641.0</v>
+        <v>216</v>
+      </c>
+      <c r="I134" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J134" t="e">
         <v>#N/A</v>
@@ -5154,25 +5013,25 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C135" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D135" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E135" t="n" s="2">
-        <v>38139.0</v>
+        <v>38353.0</v>
       </c>
       <c r="F135" t="n">
         <v>15.0</v>
       </c>
       <c r="G135" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H135" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I135" t="e">
         <v>#N/A</v>
@@ -5186,25 +5045,25 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C136" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D136" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E136" t="n" s="2">
-        <v>38169.0</v>
+        <v>38504.0</v>
       </c>
       <c r="F136" t="n">
         <v>16.0</v>
       </c>
       <c r="G136" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H136" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I136" t="e">
         <v>#N/A</v>
@@ -5218,25 +5077,25 @@
         <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C137" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D137" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E137" t="n" s="2">
-        <v>38292.0</v>
+        <v>38687.0</v>
       </c>
       <c r="F137" t="n">
         <v>17.0</v>
       </c>
       <c r="G137" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H137" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I137" t="e">
         <v>#N/A</v>
@@ -5250,25 +5109,25 @@
         <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C138" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D138" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E138" t="n" s="2">
-        <v>38353.0</v>
+        <v>39052.0</v>
       </c>
       <c r="F138" t="n">
         <v>18.0</v>
       </c>
       <c r="G138" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H138" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I138" t="e">
         <v>#N/A</v>
@@ -5282,25 +5141,25 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C139" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D139" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E139" t="n" s="2">
-        <v>38687.0</v>
+        <v>39203.0</v>
       </c>
       <c r="F139" t="n">
         <v>19.0</v>
       </c>
       <c r="G139" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H139" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I139" t="e">
         <v>#N/A</v>
@@ -5314,28 +5173,28 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="C140" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="D140" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="E140" t="n" s="2">
-        <v>39052.0</v>
+        <v>37117.0</v>
       </c>
       <c r="F140" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="G140" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H140" t="s">
-        <v>263</v>
-      </c>
-      <c r="I140" t="e">
-        <v>#N/A</v>
+        <v>215</v>
+      </c>
+      <c r="I140" t="n">
+        <v>624.0</v>
       </c>
       <c r="J140" t="e">
         <v>#N/A</v>
@@ -5346,28 +5205,28 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C141" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="D141" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="E141" t="n" s="2">
-        <v>34082.0</v>
+        <v>38078.0</v>
       </c>
       <c r="F141" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G141" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H141" t="s">
-        <v>262</v>
-      </c>
-      <c r="I141" t="n">
-        <v>373.0</v>
+        <v>216</v>
+      </c>
+      <c r="I141" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J141" t="e">
         <v>#N/A</v>
@@ -5378,25 +5237,25 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C142" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="D142" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="E142" t="n" s="2">
-        <v>35435.0</v>
+        <v>38139.0</v>
       </c>
       <c r="F142" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G142" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H142" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="I142" t="e">
         <v>#N/A</v>
@@ -5410,25 +5269,25 @@
         <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C143" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="D143" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E143" t="n" s="2">
-        <v>35525.0</v>
+        <v>38169.0</v>
       </c>
       <c r="F143" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G143" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H143" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="I143" t="e">
         <v>#N/A</v>
@@ -5442,25 +5301,25 @@
         <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C144" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="D144" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E144" t="n" s="2">
-        <v>37135.0</v>
+        <v>38292.0</v>
       </c>
       <c r="F144" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G144" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H144" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I144" t="e">
         <v>#N/A</v>
@@ -5474,25 +5333,25 @@
         <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C145" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="D145" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E145" t="n" s="2">
-        <v>37165.0</v>
+        <v>38353.0</v>
       </c>
       <c r="F145" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G145" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H145" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I145" t="e">
         <v>#N/A</v>
@@ -5506,25 +5365,25 @@
         <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C146" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="D146" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E146" t="n" s="2">
-        <v>37377.0</v>
+        <v>38504.0</v>
       </c>
       <c r="F146" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G146" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H146" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I146" t="e">
         <v>#N/A</v>
@@ -5538,25 +5397,25 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C147" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="D147" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E147" t="n" s="2">
-        <v>37653.0</v>
+        <v>38687.0</v>
       </c>
       <c r="F147" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G147" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H147" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I147" t="e">
         <v>#N/A</v>
@@ -5570,25 +5429,25 @@
         <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C148" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="D148" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E148" t="n" s="2">
-        <v>37712.0</v>
+        <v>39052.0</v>
       </c>
       <c r="F148" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G148" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H148" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I148" t="e">
         <v>#N/A</v>
@@ -5602,25 +5461,25 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C149" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="D149" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="E149" t="n" s="2">
-        <v>37895.0</v>
+        <v>39153.0</v>
       </c>
       <c r="F149" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G149" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H149" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="I149" t="e">
         <v>#N/A</v>
@@ -5634,25 +5493,25 @@
         <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C150" t="s">
-        <v>235</v>
-      </c>
-      <c r="D150" t="s">
-        <v>252</v>
+        <v>195</v>
+      </c>
+      <c r="D150" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E150" t="n" s="2">
-        <v>37956.0</v>
+        <v>39203.0</v>
       </c>
       <c r="F150" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G150" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H150" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I150" t="e">
         <v>#N/A</v>
@@ -5666,28 +5525,28 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C151" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D151" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E151" t="n" s="2">
-        <v>38078.0</v>
+        <v>37117.0</v>
       </c>
       <c r="F151" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G151" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H151" t="s">
-        <v>263</v>
-      </c>
-      <c r="I151" t="e">
-        <v>#N/A</v>
+        <v>215</v>
+      </c>
+      <c r="I151" t="n">
+        <v>380.0</v>
       </c>
       <c r="J151" t="e">
         <v>#N/A</v>
@@ -5698,25 +5557,25 @@
         <v>160</v>
       </c>
       <c r="B152" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C152" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D152" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E152" t="n" s="2">
-        <v>38139.0</v>
+        <v>38078.0</v>
       </c>
       <c r="F152" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="G152" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H152" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I152" t="e">
         <v>#N/A</v>
@@ -5730,25 +5589,25 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C153" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D153" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E153" t="n" s="2">
-        <v>38169.0</v>
+        <v>38139.0</v>
       </c>
       <c r="F153" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="G153" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H153" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I153" t="e">
         <v>#N/A</v>
@@ -5762,25 +5621,25 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C154" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D154" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E154" t="n" s="2">
-        <v>38292.0</v>
+        <v>38169.0</v>
       </c>
       <c r="F154" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="G154" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H154" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I154" t="e">
         <v>#N/A</v>
@@ -5794,25 +5653,25 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C155" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D155" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E155" t="n" s="2">
-        <v>38353.0</v>
+        <v>38292.0</v>
       </c>
       <c r="F155" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="G155" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H155" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I155" t="e">
         <v>#N/A</v>
@@ -5826,25 +5685,25 @@
         <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C156" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D156" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E156" t="n" s="2">
-        <v>38504.0</v>
+        <v>38353.0</v>
       </c>
       <c r="F156" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="G156" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H156" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I156" t="e">
         <v>#N/A</v>
@@ -5858,25 +5717,25 @@
         <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C157" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D157" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E157" t="n" s="2">
-        <v>38687.0</v>
+        <v>38504.0</v>
       </c>
       <c r="F157" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="G157" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H157" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I157" t="e">
         <v>#N/A</v>
@@ -5890,25 +5749,25 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C158" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D158" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E158" t="n" s="2">
-        <v>39052.0</v>
+        <v>38687.0</v>
       </c>
       <c r="F158" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="G158" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H158" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I158" t="e">
         <v>#N/A</v>
@@ -5922,25 +5781,25 @@
         <v>167</v>
       </c>
       <c r="B159" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C159" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D159" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E159" t="n" s="2">
-        <v>39203.0</v>
+        <v>39052.0</v>
       </c>
       <c r="F159" t="n">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="G159" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H159" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I159" t="e">
         <v>#N/A</v>
@@ -5954,28 +5813,28 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="C160" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="D160" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="E160" t="n" s="2">
-        <v>37117.0</v>
+        <v>39153.0</v>
       </c>
       <c r="F160" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G160" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H160" t="s">
-        <v>262</v>
-      </c>
-      <c r="I160" t="n">
-        <v>624.0</v>
+        <v>215</v>
+      </c>
+      <c r="I160" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J160" t="e">
         <v>#N/A</v>
@@ -5986,25 +5845,25 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="C161" t="s">
-        <v>236</v>
-      </c>
-      <c r="D161" t="s">
-        <v>253</v>
+        <v>196</v>
+      </c>
+      <c r="D161" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E161" t="n" s="2">
-        <v>38078.0</v>
+        <v>39203.0</v>
       </c>
       <c r="F161" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="G161" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H161" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I161" t="e">
         <v>#N/A</v>
@@ -6018,28 +5877,28 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C162" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D162" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E162" t="n" s="2">
-        <v>38139.0</v>
+        <v>36719.0</v>
       </c>
       <c r="F162" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G162" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H162" t="s">
-        <v>263</v>
-      </c>
-      <c r="I162" t="e">
-        <v>#N/A</v>
+        <v>215</v>
+      </c>
+      <c r="I162" t="n">
+        <v>306.0</v>
       </c>
       <c r="J162" t="e">
         <v>#N/A</v>
@@ -6050,28 +5909,28 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C163" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D163" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="E163" t="n" s="2">
-        <v>38169.0</v>
+        <v>37113.0</v>
       </c>
       <c r="F163" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G163" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H163" t="s">
-        <v>263</v>
-      </c>
-      <c r="I163" t="e">
-        <v>#N/A</v>
+        <v>215</v>
+      </c>
+      <c r="I163" t="n">
+        <v>450.0</v>
       </c>
       <c r="J163" t="e">
         <v>#N/A</v>
@@ -6082,25 +5941,25 @@
         <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C164" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D164" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E164" t="n" s="2">
-        <v>38292.0</v>
+        <v>37135.0</v>
       </c>
       <c r="F164" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G164" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H164" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I164" t="e">
         <v>#N/A</v>
@@ -6114,28 +5973,28 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C165" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D165" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E165" t="n" s="2">
-        <v>38353.0</v>
+        <v>37819.0</v>
       </c>
       <c r="F165" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G165" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H165" t="s">
-        <v>263</v>
-      </c>
-      <c r="I165" t="e">
-        <v>#N/A</v>
+        <v>215</v>
+      </c>
+      <c r="I165" t="n">
+        <v>530.0</v>
       </c>
       <c r="J165" t="e">
         <v>#N/A</v>
@@ -6146,25 +6005,25 @@
         <v>174</v>
       </c>
       <c r="B166" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C166" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D166" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E166" t="n" s="2">
-        <v>38504.0</v>
+        <v>37895.0</v>
       </c>
       <c r="F166" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G166" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H166" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I166" t="e">
         <v>#N/A</v>
@@ -6178,25 +6037,25 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C167" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D167" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E167" t="n" s="2">
-        <v>38687.0</v>
+        <v>37956.0</v>
       </c>
       <c r="F167" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G167" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H167" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I167" t="e">
         <v>#N/A</v>
@@ -6210,25 +6069,25 @@
         <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C168" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D168" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E168" t="n" s="2">
-        <v>39052.0</v>
+        <v>38078.0</v>
       </c>
       <c r="F168" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G168" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H168" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I168" t="e">
         <v>#N/A</v>
@@ -6242,25 +6101,25 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C169" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D169" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="E169" t="n" s="2">
-        <v>39153.0</v>
+        <v>38139.0</v>
       </c>
       <c r="F169" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G169" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="H169" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="I169" t="e">
         <v>#N/A</v>
@@ -6274,25 +6133,25 @@
         <v>178</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C170" t="s">
-        <v>236</v>
-      </c>
-      <c r="D170" t="e">
-        <v>#N/A</v>
+        <v>197</v>
+      </c>
+      <c r="D170" t="s">
+        <v>211</v>
       </c>
       <c r="E170" t="n" s="2">
-        <v>39203.0</v>
+        <v>38169.0</v>
       </c>
       <c r="F170" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G170" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H170" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I170" t="e">
         <v>#N/A</v>
@@ -6306,28 +6165,28 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="C171" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="D171" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E171" t="n" s="2">
-        <v>37117.0</v>
+        <v>38292.0</v>
       </c>
       <c r="F171" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G171" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H171" t="s">
-        <v>262</v>
-      </c>
-      <c r="I171" t="n">
-        <v>380.0</v>
+        <v>216</v>
+      </c>
+      <c r="I171" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J171" t="e">
         <v>#N/A</v>
@@ -6338,25 +6197,25 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="C172" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="D172" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E172" t="n" s="2">
-        <v>38078.0</v>
+        <v>38353.0</v>
       </c>
       <c r="F172" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="G172" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H172" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I172" t="e">
         <v>#N/A</v>
@@ -6370,25 +6229,25 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="C173" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="D173" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E173" t="n" s="2">
-        <v>38139.0</v>
+        <v>38504.0</v>
       </c>
       <c r="F173" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="G173" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H173" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I173" t="e">
         <v>#N/A</v>
@@ -6402,25 +6261,25 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="C174" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="D174" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E174" t="n" s="2">
-        <v>38169.0</v>
+        <v>38687.0</v>
       </c>
       <c r="F174" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="G174" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H174" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I174" t="e">
         <v>#N/A</v>
@@ -6434,25 +6293,25 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="C175" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="D175" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E175" t="n" s="2">
-        <v>38292.0</v>
+        <v>39052.0</v>
       </c>
       <c r="F175" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="G175" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H175" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I175" t="e">
         <v>#N/A</v>
@@ -6466,1310 +6325,30 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="C176" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="D176" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E176" t="n" s="2">
-        <v>38353.0</v>
+        <v>39203.0</v>
       </c>
       <c r="F176" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="G176" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H176" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I176" t="e">
         <v>#N/A</v>
       </c>
       <c r="J176" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>185</v>
-      </c>
-      <c r="B177" t="s">
-        <v>237</v>
-      </c>
-      <c r="C177" t="s">
-        <v>237</v>
-      </c>
-      <c r="D177" t="s">
-        <v>253</v>
-      </c>
-      <c r="E177" t="n" s="2">
-        <v>38504.0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G177" t="s">
-        <v>261</v>
-      </c>
-      <c r="H177" t="s">
-        <v>263</v>
-      </c>
-      <c r="I177" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J177" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>186</v>
-      </c>
-      <c r="B178" t="s">
-        <v>237</v>
-      </c>
-      <c r="C178" t="s">
-        <v>237</v>
-      </c>
-      <c r="D178" t="s">
-        <v>253</v>
-      </c>
-      <c r="E178" t="n" s="2">
-        <v>38687.0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G178" t="s">
-        <v>261</v>
-      </c>
-      <c r="H178" t="s">
-        <v>263</v>
-      </c>
-      <c r="I178" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J178" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>187</v>
-      </c>
-      <c r="B179" t="s">
-        <v>237</v>
-      </c>
-      <c r="C179" t="s">
-        <v>237</v>
-      </c>
-      <c r="D179" t="s">
-        <v>253</v>
-      </c>
-      <c r="E179" t="n" s="2">
-        <v>39052.0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G179" t="s">
-        <v>261</v>
-      </c>
-      <c r="H179" t="s">
-        <v>263</v>
-      </c>
-      <c r="I179" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J179" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>188</v>
-      </c>
-      <c r="B180" t="s">
-        <v>237</v>
-      </c>
-      <c r="C180" t="s">
-        <v>237</v>
-      </c>
-      <c r="D180" t="s">
-        <v>254</v>
-      </c>
-      <c r="E180" t="n" s="2">
-        <v>39153.0</v>
-      </c>
-      <c r="F180" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G180" t="s">
-        <v>260</v>
-      </c>
-      <c r="H180" t="s">
-        <v>262</v>
-      </c>
-      <c r="I180" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J180" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>189</v>
-      </c>
-      <c r="B181" t="s">
-        <v>237</v>
-      </c>
-      <c r="C181" t="s">
-        <v>237</v>
-      </c>
-      <c r="D181" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E181" t="n" s="2">
-        <v>39203.0</v>
-      </c>
-      <c r="F181" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G181" t="s">
-        <v>261</v>
-      </c>
-      <c r="H181" t="s">
-        <v>263</v>
-      </c>
-      <c r="I181" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J181" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>190</v>
-      </c>
-      <c r="B182" t="s">
-        <v>238</v>
-      </c>
-      <c r="C182" t="s">
-        <v>238</v>
-      </c>
-      <c r="D182" t="s">
-        <v>255</v>
-      </c>
-      <c r="E182" t="n" s="2">
-        <v>36719.0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G182" t="s">
-        <v>260</v>
-      </c>
-      <c r="H182" t="s">
-        <v>262</v>
-      </c>
-      <c r="I182" t="n">
-        <v>306.0</v>
-      </c>
-      <c r="J182" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>191</v>
-      </c>
-      <c r="B183" t="s">
-        <v>238</v>
-      </c>
-      <c r="C183" t="s">
-        <v>238</v>
-      </c>
-      <c r="D183" t="s">
-        <v>256</v>
-      </c>
-      <c r="E183" t="n" s="2">
-        <v>37113.0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G183" t="s">
-        <v>260</v>
-      </c>
-      <c r="H183" t="s">
-        <v>262</v>
-      </c>
-      <c r="I183" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="J183" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>192</v>
-      </c>
-      <c r="B184" t="s">
-        <v>238</v>
-      </c>
-      <c r="C184" t="s">
-        <v>238</v>
-      </c>
-      <c r="D184" t="s">
-        <v>255</v>
-      </c>
-      <c r="E184" t="n" s="2">
-        <v>37135.0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G184" t="s">
-        <v>261</v>
-      </c>
-      <c r="H184" t="s">
-        <v>263</v>
-      </c>
-      <c r="I184" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J184" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>193</v>
-      </c>
-      <c r="B185" t="s">
-        <v>238</v>
-      </c>
-      <c r="C185" t="s">
-        <v>238</v>
-      </c>
-      <c r="D185" t="s">
-        <v>255</v>
-      </c>
-      <c r="E185" t="n" s="2">
-        <v>37819.0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G185" t="s">
-        <v>261</v>
-      </c>
-      <c r="H185" t="s">
-        <v>262</v>
-      </c>
-      <c r="I185" t="n">
-        <v>530.0</v>
-      </c>
-      <c r="J185" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>194</v>
-      </c>
-      <c r="B186" t="s">
-        <v>238</v>
-      </c>
-      <c r="C186" t="s">
-        <v>238</v>
-      </c>
-      <c r="D186" t="s">
-        <v>255</v>
-      </c>
-      <c r="E186" t="n" s="2">
-        <v>37895.0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G186" t="s">
-        <v>261</v>
-      </c>
-      <c r="H186" t="s">
-        <v>263</v>
-      </c>
-      <c r="I186" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J186" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>195</v>
-      </c>
-      <c r="B187" t="s">
-        <v>238</v>
-      </c>
-      <c r="C187" t="s">
-        <v>238</v>
-      </c>
-      <c r="D187" t="s">
-        <v>255</v>
-      </c>
-      <c r="E187" t="n" s="2">
-        <v>37956.0</v>
-      </c>
-      <c r="F187" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G187" t="s">
-        <v>261</v>
-      </c>
-      <c r="H187" t="s">
-        <v>263</v>
-      </c>
-      <c r="I187" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J187" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>196</v>
-      </c>
-      <c r="B188" t="s">
-        <v>238</v>
-      </c>
-      <c r="C188" t="s">
-        <v>238</v>
-      </c>
-      <c r="D188" t="s">
-        <v>255</v>
-      </c>
-      <c r="E188" t="n" s="2">
-        <v>38078.0</v>
-      </c>
-      <c r="F188" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G188" t="s">
-        <v>261</v>
-      </c>
-      <c r="H188" t="s">
-        <v>263</v>
-      </c>
-      <c r="I188" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J188" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>197</v>
-      </c>
-      <c r="B189" t="s">
-        <v>238</v>
-      </c>
-      <c r="C189" t="s">
-        <v>238</v>
-      </c>
-      <c r="D189" t="s">
-        <v>255</v>
-      </c>
-      <c r="E189" t="n" s="2">
-        <v>38139.0</v>
-      </c>
-      <c r="F189" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G189" t="s">
-        <v>261</v>
-      </c>
-      <c r="H189" t="s">
-        <v>263</v>
-      </c>
-      <c r="I189" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J189" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>198</v>
-      </c>
-      <c r="B190" t="s">
-        <v>238</v>
-      </c>
-      <c r="C190" t="s">
-        <v>238</v>
-      </c>
-      <c r="D190" t="s">
-        <v>255</v>
-      </c>
-      <c r="E190" t="n" s="2">
-        <v>38169.0</v>
-      </c>
-      <c r="F190" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G190" t="s">
-        <v>261</v>
-      </c>
-      <c r="H190" t="s">
-        <v>263</v>
-      </c>
-      <c r="I190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>199</v>
-      </c>
-      <c r="B191" t="s">
-        <v>238</v>
-      </c>
-      <c r="C191" t="s">
-        <v>238</v>
-      </c>
-      <c r="D191" t="s">
-        <v>255</v>
-      </c>
-      <c r="E191" t="n" s="2">
-        <v>38292.0</v>
-      </c>
-      <c r="F191" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G191" t="s">
-        <v>261</v>
-      </c>
-      <c r="H191" t="s">
-        <v>263</v>
-      </c>
-      <c r="I191" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J191" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>200</v>
-      </c>
-      <c r="B192" t="s">
-        <v>238</v>
-      </c>
-      <c r="C192" t="s">
-        <v>238</v>
-      </c>
-      <c r="D192" t="s">
-        <v>255</v>
-      </c>
-      <c r="E192" t="n" s="2">
-        <v>38353.0</v>
-      </c>
-      <c r="F192" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G192" t="s">
-        <v>261</v>
-      </c>
-      <c r="H192" t="s">
-        <v>263</v>
-      </c>
-      <c r="I192" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J192" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>201</v>
-      </c>
-      <c r="B193" t="s">
-        <v>238</v>
-      </c>
-      <c r="C193" t="s">
-        <v>238</v>
-      </c>
-      <c r="D193" t="s">
-        <v>255</v>
-      </c>
-      <c r="E193" t="n" s="2">
-        <v>38504.0</v>
-      </c>
-      <c r="F193" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G193" t="s">
-        <v>261</v>
-      </c>
-      <c r="H193" t="s">
-        <v>263</v>
-      </c>
-      <c r="I193" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J193" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>202</v>
-      </c>
-      <c r="B194" t="s">
-        <v>238</v>
-      </c>
-      <c r="C194" t="s">
-        <v>238</v>
-      </c>
-      <c r="D194" t="s">
-        <v>255</v>
-      </c>
-      <c r="E194" t="n" s="2">
-        <v>38687.0</v>
-      </c>
-      <c r="F194" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G194" t="s">
-        <v>261</v>
-      </c>
-      <c r="H194" t="s">
-        <v>263</v>
-      </c>
-      <c r="I194" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J194" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>203</v>
-      </c>
-      <c r="B195" t="s">
-        <v>238</v>
-      </c>
-      <c r="C195" t="s">
-        <v>238</v>
-      </c>
-      <c r="D195" t="s">
-        <v>255</v>
-      </c>
-      <c r="E195" t="n" s="2">
-        <v>39052.0</v>
-      </c>
-      <c r="F195" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G195" t="s">
-        <v>261</v>
-      </c>
-      <c r="H195" t="s">
-        <v>263</v>
-      </c>
-      <c r="I195" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J195" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>204</v>
-      </c>
-      <c r="B196" t="s">
-        <v>238</v>
-      </c>
-      <c r="C196" t="s">
-        <v>238</v>
-      </c>
-      <c r="D196" t="s">
-        <v>255</v>
-      </c>
-      <c r="E196" t="n" s="2">
-        <v>39203.0</v>
-      </c>
-      <c r="F196" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G196" t="s">
-        <v>261</v>
-      </c>
-      <c r="H196" t="s">
-        <v>263</v>
-      </c>
-      <c r="I196" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J196" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>205</v>
-      </c>
-      <c r="B197" t="s">
-        <v>239</v>
-      </c>
-      <c r="C197" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D197" t="s">
-        <v>257</v>
-      </c>
-      <c r="E197" t="n" s="2">
-        <v>33876.0</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G197" t="s">
-        <v>260</v>
-      </c>
-      <c r="H197" t="s">
-        <v>262</v>
-      </c>
-      <c r="I197" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J197" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>206</v>
-      </c>
-      <c r="B198" t="s">
-        <v>239</v>
-      </c>
-      <c r="C198" t="s">
-        <v>241</v>
-      </c>
-      <c r="D198" t="s">
-        <v>258</v>
-      </c>
-      <c r="E198" t="n" s="2">
-        <v>33904.0</v>
-      </c>
-      <c r="F198" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G198" t="s">
-        <v>261</v>
-      </c>
-      <c r="H198" t="s">
-        <v>262</v>
-      </c>
-      <c r="I198" t="n">
-        <v>570.0</v>
-      </c>
-      <c r="J198" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>207</v>
-      </c>
-      <c r="B199" t="s">
-        <v>239</v>
-      </c>
-      <c r="C199" t="s">
-        <v>241</v>
-      </c>
-      <c r="D199" t="s">
-        <v>258</v>
-      </c>
-      <c r="E199" t="n" s="2">
-        <v>34634.0</v>
-      </c>
-      <c r="F199" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G199" t="s">
-        <v>261</v>
-      </c>
-      <c r="H199" t="s">
-        <v>262</v>
-      </c>
-      <c r="I199" t="n">
-        <v>613.0</v>
-      </c>
-      <c r="J199" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>208</v>
-      </c>
-      <c r="B200" t="s">
-        <v>239</v>
-      </c>
-      <c r="C200" t="s">
-        <v>241</v>
-      </c>
-      <c r="D200" t="s">
-        <v>258</v>
-      </c>
-      <c r="E200" t="n" s="2">
-        <v>34940.0</v>
-      </c>
-      <c r="F200" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G200" t="s">
-        <v>261</v>
-      </c>
-      <c r="H200" t="s">
-        <v>262</v>
-      </c>
-      <c r="I200" t="n">
-        <v>668.0</v>
-      </c>
-      <c r="J200" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>209</v>
-      </c>
-      <c r="B201" t="s">
-        <v>239</v>
-      </c>
-      <c r="C201" t="s">
-        <v>241</v>
-      </c>
-      <c r="D201" t="s">
-        <v>258</v>
-      </c>
-      <c r="E201" t="n" s="2">
-        <v>35706.0</v>
-      </c>
-      <c r="F201" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G201" t="s">
-        <v>261</v>
-      </c>
-      <c r="H201" t="s">
-        <v>262</v>
-      </c>
-      <c r="I201" t="n">
-        <v>621.0</v>
-      </c>
-      <c r="J201" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>210</v>
-      </c>
-      <c r="B202" t="s">
-        <v>239</v>
-      </c>
-      <c r="C202" t="s">
-        <v>241</v>
-      </c>
-      <c r="D202" t="s">
-        <v>258</v>
-      </c>
-      <c r="E202" t="n" s="2">
-        <v>36040.0</v>
-      </c>
-      <c r="F202" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G202" t="s">
-        <v>261</v>
-      </c>
-      <c r="H202" t="s">
-        <v>262</v>
-      </c>
-      <c r="I202" t="n">
-        <v>605.0</v>
-      </c>
-      <c r="J202" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>211</v>
-      </c>
-      <c r="B203" t="s">
-        <v>239</v>
-      </c>
-      <c r="C203" t="s">
-        <v>241</v>
-      </c>
-      <c r="D203" t="s">
-        <v>258</v>
-      </c>
-      <c r="E203" t="n" s="2">
-        <v>36087.0</v>
-      </c>
-      <c r="F203" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G203" t="s">
-        <v>261</v>
-      </c>
-      <c r="H203" t="s">
-        <v>262</v>
-      </c>
-      <c r="I203" t="n">
-        <v>597.0</v>
-      </c>
-      <c r="J203" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>212</v>
-      </c>
-      <c r="B204" t="s">
-        <v>239</v>
-      </c>
-      <c r="C204" t="s">
-        <v>241</v>
-      </c>
-      <c r="D204" t="s">
-        <v>258</v>
-      </c>
-      <c r="E204" t="n" s="2">
-        <v>36224.0</v>
-      </c>
-      <c r="F204" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G204" t="s">
-        <v>261</v>
-      </c>
-      <c r="H204" t="s">
-        <v>262</v>
-      </c>
-      <c r="I204" t="n">
-        <v>644.0</v>
-      </c>
-      <c r="J204" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>213</v>
-      </c>
-      <c r="B205" t="s">
-        <v>239</v>
-      </c>
-      <c r="C205" t="s">
-        <v>241</v>
-      </c>
-      <c r="D205" t="s">
-        <v>258</v>
-      </c>
-      <c r="E205" t="n" s="2">
-        <v>36476.0</v>
-      </c>
-      <c r="F205" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G205" t="s">
-        <v>261</v>
-      </c>
-      <c r="H205" t="s">
-        <v>262</v>
-      </c>
-      <c r="I205" t="n">
-        <v>584.0</v>
-      </c>
-      <c r="J205" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>214</v>
-      </c>
-      <c r="B206" t="s">
-        <v>239</v>
-      </c>
-      <c r="C206" t="s">
-        <v>241</v>
-      </c>
-      <c r="D206" t="s">
-        <v>258</v>
-      </c>
-      <c r="E206" t="n" s="2">
-        <v>36718.0</v>
-      </c>
-      <c r="F206" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G206" t="s">
-        <v>261</v>
-      </c>
-      <c r="H206" t="s">
-        <v>262</v>
-      </c>
-      <c r="I206" t="n">
-        <v>637.0</v>
-      </c>
-      <c r="J206" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>215</v>
-      </c>
-      <c r="B207" t="s">
-        <v>239</v>
-      </c>
-      <c r="C207" t="s">
-        <v>241</v>
-      </c>
-      <c r="D207" t="s">
-        <v>259</v>
-      </c>
-      <c r="E207" t="n" s="2">
-        <v>37135.0</v>
-      </c>
-      <c r="F207" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G207" t="s">
-        <v>261</v>
-      </c>
-      <c r="H207" t="s">
-        <v>263</v>
-      </c>
-      <c r="I207" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J207" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>216</v>
-      </c>
-      <c r="B208" t="s">
-        <v>239</v>
-      </c>
-      <c r="C208" t="s">
-        <v>241</v>
-      </c>
-      <c r="D208" t="s">
-        <v>259</v>
-      </c>
-      <c r="E208" t="n" s="2">
-        <v>37165.0</v>
-      </c>
-      <c r="F208" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G208" t="s">
-        <v>261</v>
-      </c>
-      <c r="H208" t="s">
-        <v>263</v>
-      </c>
-      <c r="I208" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J208" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>217</v>
-      </c>
-      <c r="B209" t="s">
-        <v>239</v>
-      </c>
-      <c r="C209" t="s">
-        <v>241</v>
-      </c>
-      <c r="D209" t="s">
-        <v>259</v>
-      </c>
-      <c r="E209" t="n" s="2">
-        <v>37377.0</v>
-      </c>
-      <c r="F209" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G209" t="s">
-        <v>261</v>
-      </c>
-      <c r="H209" t="s">
-        <v>263</v>
-      </c>
-      <c r="I209" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J209" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>218</v>
-      </c>
-      <c r="B210" t="s">
-        <v>239</v>
-      </c>
-      <c r="C210" t="s">
-        <v>241</v>
-      </c>
-      <c r="D210" t="s">
-        <v>259</v>
-      </c>
-      <c r="E210" t="n" s="2">
-        <v>37653.0</v>
-      </c>
-      <c r="F210" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G210" t="s">
-        <v>261</v>
-      </c>
-      <c r="H210" t="s">
-        <v>263</v>
-      </c>
-      <c r="I210" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J210" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>219</v>
-      </c>
-      <c r="B211" t="s">
-        <v>239</v>
-      </c>
-      <c r="C211" t="s">
-        <v>241</v>
-      </c>
-      <c r="D211" t="s">
-        <v>259</v>
-      </c>
-      <c r="E211" t="n" s="2">
-        <v>37672.0</v>
-      </c>
-      <c r="F211" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G211" t="s">
-        <v>261</v>
-      </c>
-      <c r="H211" t="s">
-        <v>262</v>
-      </c>
-      <c r="I211" t="n">
-        <v>576.0</v>
-      </c>
-      <c r="J211" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>220</v>
-      </c>
-      <c r="B212" t="s">
-        <v>239</v>
-      </c>
-      <c r="C212" t="s">
-        <v>241</v>
-      </c>
-      <c r="D212" t="s">
-        <v>259</v>
-      </c>
-      <c r="E212" t="n" s="2">
-        <v>37712.0</v>
-      </c>
-      <c r="F212" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G212" t="s">
-        <v>261</v>
-      </c>
-      <c r="H212" t="s">
-        <v>263</v>
-      </c>
-      <c r="I212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J212" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>221</v>
-      </c>
-      <c r="B213" t="s">
-        <v>239</v>
-      </c>
-      <c r="C213" t="s">
-        <v>241</v>
-      </c>
-      <c r="D213" t="s">
-        <v>259</v>
-      </c>
-      <c r="E213" t="n" s="2">
-        <v>37895.0</v>
-      </c>
-      <c r="F213" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="G213" t="s">
-        <v>261</v>
-      </c>
-      <c r="H213" t="s">
-        <v>263</v>
-      </c>
-      <c r="I213" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J213" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>222</v>
-      </c>
-      <c r="B214" t="s">
-        <v>239</v>
-      </c>
-      <c r="C214" t="s">
-        <v>241</v>
-      </c>
-      <c r="D214" t="s">
-        <v>259</v>
-      </c>
-      <c r="E214" t="n" s="2">
-        <v>37956.0</v>
-      </c>
-      <c r="F214" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G214" t="s">
-        <v>261</v>
-      </c>
-      <c r="H214" t="s">
-        <v>263</v>
-      </c>
-      <c r="I214" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J214" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>223</v>
-      </c>
-      <c r="B215" t="s">
-        <v>239</v>
-      </c>
-      <c r="C215" t="s">
-        <v>241</v>
-      </c>
-      <c r="D215" t="s">
-        <v>259</v>
-      </c>
-      <c r="E215" t="n" s="2">
-        <v>38078.0</v>
-      </c>
-      <c r="F215" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G215" t="s">
-        <v>261</v>
-      </c>
-      <c r="H215" t="s">
-        <v>263</v>
-      </c>
-      <c r="I215" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J215" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>224</v>
-      </c>
-      <c r="B216" t="s">
-        <v>239</v>
-      </c>
-      <c r="C216" t="s">
-        <v>241</v>
-      </c>
-      <c r="D216" t="s">
-        <v>259</v>
-      </c>
-      <c r="E216" t="n" s="2">
-        <v>38139.0</v>
-      </c>
-      <c r="F216" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G216" t="s">
-        <v>261</v>
-      </c>
-      <c r="H216" t="s">
-        <v>263</v>
-      </c>
-      <c r="I216" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J216" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/data/NewlyCreatedData/Checks/sex_checkV3.xlsx
+++ b/data/NewlyCreatedData/Checks/sex_checkV3.xlsx
@@ -182,10 +182,10 @@
     <t>obs12373</t>
   </si>
   <si>
-    <t>obs13042</t>
-  </si>
-  <si>
-    <t>obs13625</t>
+    <t>obs13038</t>
+  </si>
+  <si>
+    <t>obs13522</t>
   </si>
   <si>
     <t>obs12132</t>
@@ -194,10 +194,10 @@
     <t>obs12409</t>
   </si>
   <si>
-    <t>obs13078</t>
-  </si>
-  <si>
-    <t>obs13661</t>
+    <t>obs13094</t>
+  </si>
+  <si>
+    <t>obs13558</t>
   </si>
   <si>
     <t>obs4464</t>
@@ -245,10 +245,10 @@
     <t>obs12413</t>
   </si>
   <si>
-    <t>obs13082</t>
-  </si>
-  <si>
-    <t>obs13665</t>
+    <t>obs13098</t>
+  </si>
+  <si>
+    <t>obs13562</t>
   </si>
   <si>
     <t>obs1401</t>
